--- a/data-raw/animals/animalBreakpointslistRaw.xlsx
+++ b/data-raw/animals/animalBreakpointslistRaw.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/ISIMIPData/data-raw/animals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1DEB89-476C-0345-90B5-2E7DD908027D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A02BF9-531D-D84E-A3BA-781DBA8E18BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15880" yWindow="9800" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -555,7 +555,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -914,7 +914,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="E6" sqref="E6:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -950,7 +950,7 @@
         <v>79</v>
       </c>
       <c r="E2" s="1">
-        <v>86.1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1018,7 +1018,7 @@
         <v>28.8</v>
       </c>
       <c r="E6" s="1">
-        <v>29.9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1035,7 +1035,7 @@
         <v>28.8</v>
       </c>
       <c r="E7" s="1">
-        <v>29.9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
         <v>28.8</v>
       </c>
       <c r="E8" s="1">
-        <v>29.9</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/animals/animalBreakpointslistRaw.xlsx
+++ b/data-raw/animals/animalBreakpointslistRaw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/ISIMIPData/data-raw/animals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A02BF9-531D-D84E-A3BA-781DBA8E18BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2839845-F9C0-6348-B9EE-733A1C74219C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15880" yWindow="9800" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7820" yWindow="3540" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="animalBreakpointslistRaw" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>species</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>chicken</t>
+  </si>
+  <si>
+    <t>maximum</t>
   </si>
 </sst>
 </file>
@@ -911,15 +914,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -935,8 +938,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -952,8 +958,11 @@
       <c r="E2" s="1">
         <v>89</v>
       </c>
+      <c r="F2" s="1">
+        <v>115</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -969,8 +978,11 @@
       <c r="E3" s="1">
         <v>25.6</v>
       </c>
+      <c r="F3" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -986,8 +998,11 @@
       <c r="E4" s="1">
         <v>89</v>
       </c>
+      <c r="F4" s="1">
+        <v>115</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1003,8 +1018,11 @@
       <c r="E5" s="1">
         <v>62</v>
       </c>
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1020,8 +1038,11 @@
       <c r="E6" s="1">
         <v>30</v>
       </c>
+      <c r="F6" s="1">
+        <v>70</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1037,8 +1058,11 @@
       <c r="E7" s="1">
         <v>30</v>
       </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1053,6 +1077,9 @@
       </c>
       <c r="E8" s="1">
         <v>30</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/animals/animalBreakpointslistRaw.xlsx
+++ b/data-raw/animals/animalBreakpointslistRaw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/ISIMIPData/data-raw/animals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2839845-F9C0-6348-B9EE-733A1C74219C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C306C395-F874-7640-ABC6-BD5A58AC31A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="3540" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13620" yWindow="2800" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="animalBreakpointslistRaw" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>species</t>
   </si>
@@ -51,25 +51,46 @@
     <t>cattle</t>
   </si>
   <si>
-    <t>sheep</t>
-  </si>
-  <si>
     <t>goat</t>
   </si>
   <si>
     <t>yak</t>
   </si>
   <si>
-    <t>swine</t>
-  </si>
-  <si>
     <t>layer</t>
   </si>
   <si>
-    <t>chicken</t>
-  </si>
-  <si>
     <t>maximum</t>
+  </si>
+  <si>
+    <t>sheep_temp</t>
+  </si>
+  <si>
+    <t>sheep_trop</t>
+  </si>
+  <si>
+    <t>pigs_temp</t>
+  </si>
+  <si>
+    <t>pigs_trop</t>
+  </si>
+  <si>
+    <t>chicken_temp</t>
+  </si>
+  <si>
+    <t>chicken_trop</t>
+  </si>
+  <si>
+    <t>bos_Taurus</t>
+  </si>
+  <si>
+    <t>bos_Indicus</t>
+  </si>
+  <si>
+    <t>breeds</t>
+  </si>
+  <si>
+    <t>generic_generic</t>
   </si>
 </sst>
 </file>
@@ -914,17 +935,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B13" sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -939,12 +960,12 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -964,27 +985,27 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>22.2</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>23.3</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1">
-        <v>25.6</v>
+        <v>94</v>
       </c>
       <c r="F3" s="1">
-        <v>50</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1004,47 +1025,47 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>52</v>
+        <v>22.2</v>
       </c>
       <c r="D5" s="1">
-        <v>57</v>
+        <v>23.3</v>
       </c>
       <c r="E5" s="1">
-        <v>62</v>
+        <v>25.6</v>
       </c>
       <c r="F5" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>27.8</v>
+        <v>22.2</v>
       </c>
       <c r="D6" s="1">
-        <v>28.8</v>
+        <v>23.3</v>
       </c>
       <c r="E6" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1059,12 +1080,12 @@
         <v>30</v>
       </c>
       <c r="F7" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1076,10 +1097,110 @@
         <v>28.8</v>
       </c>
       <c r="E8" s="1">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="E9" s="1">
         <v>30</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="1">
         <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1">
+        <v>79</v>
+      </c>
+      <c r="E13" s="1">
+        <v>89</v>
+      </c>
+      <c r="F13" s="1">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
